--- a/results/MVSE/aminer/MVSE_aminer<l05><WH>85.40.xlsx
+++ b/results/MVSE/aminer/MVSE_aminer<l05><WH>85.40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -778,6 +778,73 @@
       <c r="Q5" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-18_05_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>aminer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>128</v>
+      </c>
+      <c r="G6" t="n">
+        <v>200</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="N6" t="n">
+        <v>85</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-23_40_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
